--- a/statiestis.xlsx
+++ b/statiestis.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -28,35 +28,268 @@
     <t>News</t>
   </si>
   <si>
-    <t>Introduction company</t>
-  </si>
-  <si>
-    <t>newsletter sign up</t>
-  </si>
-  <si>
-    <t>follow us</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>Help/FAQs</t>
-  </si>
-  <si>
-    <t>create an individual offer</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Secure SSL</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Login, register by secure with SSL authentication</t>
+  </si>
+  <si>
+    <t>Home page of account</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Request new activation link?</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Classic shop</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>Allow account select advertising: 
+ - Newsletter
+ - PRINT IT
+ - Email (?)</t>
+  </si>
+  <si>
+    <t>Show contant detail
+Change password
+Change email
+Detele account
+Print and more (?)</t>
+  </si>
+  <si>
+    <t>Have</t>
+  </si>
+  <si>
+    <t>Login class shop, secure with SSL authentication</t>
+  </si>
+  <si>
+    <t>List product favorites</t>
+  </si>
+  <si>
+    <t>List your orders</t>
+  </si>
+  <si>
+    <t>Have. I don't know the directory business</t>
+  </si>
+  <si>
+    <t>Sign out current account</t>
+  </si>
+  <si>
+    <t>Problem?</t>
+  </si>
+  <si>
+    <t>Yes. I don't undestand the adversing email business?
+The others are OKIE</t>
+  </si>
+  <si>
+    <t>Yes. I don't know what do Print and more login to do?
+The others are OKIE</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Search in product and content</t>
+  </si>
+  <si>
+    <t>technical issues
+Laserline Topics
+Apps &amp; Co
+Newsletter
+On the news hompage is a list of all category
+Always have "We will help you" on all page
+On the news detail page is four category on the left and detail news on the right</t>
+  </si>
+  <si>
+    <t>Menu category</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Industry sectors</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>NewsLetter sign up</t>
+  </si>
+  <si>
+    <t>Follow us</t>
+  </si>
+  <si>
+    <t>Bottom page</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Menu (FAQs, Campanies, Products)</t>
+  </si>
+  <si>
+    <t>PRINT &amp; MORE - THE LASERLINE-BONUSPROGRAMM</t>
+  </si>
+  <si>
+    <t>Information bonuses</t>
+  </si>
+  <si>
+    <t>THEREFORE, YOU CAN TRUST US:</t>
+  </si>
+  <si>
+    <t>It is information about company</t>
+  </si>
+  <si>
+    <t>Follow user can create an individual offer.</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Show item in the cart</t>
+  </si>
+  <si>
+    <t>Follow user login system</t>
+  </si>
+  <si>
+    <t>Follow user who have already account could be retrieve password</t>
+  </si>
+  <si>
+    <t>With account is not active, function could help user active account.</t>
+  </si>
+  <si>
+    <t>Follow user create a new account.</t>
+  </si>
+  <si>
+    <t>Show bank's type follow payment in the system</t>
+  </si>
+  <si>
+    <t>Connection with social network</t>
+  </si>
+  <si>
+    <t>Follow user sing-up newsletter</t>
+  </si>
+  <si>
+    <t>Category childrent: 
+- Help
+- Print job
+- Print data
+- Downloads
+- Picture archive
+- Feedback</t>
+  </si>
+  <si>
+    <t>Category childrent:
+- Technical issues
+- Laserline Topics
+- Apps &amp; Co
+- Newsletter
+On the news hompage is a list of all category
+Always have "We will help you" on all page
+On the news detail page is four category on the left and detail news on the right</t>
+  </si>
+  <si>
+    <t>Category childrent:
+- Contact: There are many category childrent, which is news to contact companies.
+- Philosophy: One news about Philosophy
+- Numbers and facts: There are many category childrent, have many news
+- Technology: There are many category childrent.
+- Environment &amp; Sustainability: One news
+- Cooperation: There are many category childrent
+- Publisher &amp; Publications: There are many category childrent.
+- Press: There are many category childrent. about image, press
+- Jobs &amp; Careers: There are many category childrent about job, education, benefits..</t>
+  </si>
+  <si>
+    <t>Category product:
+- Printing products
+- Advertising technology
+- Print pattern
+- Favorites: request login, registry
+List product on the page</t>
+  </si>
+  <si>
+    <t>Category childrent:
+- Hospitality / Hotels
+- Exhibitions / Events
+- Agencies / designer
+- Office / Business
+- Publishers / media
+- Health / Health Care
+- Industry / Trade
+- Sports / Wellness
+Follow you create,design cards, tags, for each category</t>
+  </si>
+  <si>
+    <t>Detail product page</t>
+  </si>
+  <si>
+    <t>New impage product, description, price (gross), Product relation</t>
+  </si>
+  <si>
+    <t>Have. Part configuration price</t>
+  </si>
+  <si>
+    <t>Slide have many page, show information by categories</t>
+  </si>
+  <si>
+    <t>Pay product order</t>
+  </si>
+  <si>
+    <t>Follow user pay product order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +297,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,8 +343,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,75 +680,983 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>1+A2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A36" si="0">1+A3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" ref="A29:A55" si="1">1+A36</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>